--- a/交流管理/项目日报/侯凯-每日要做的事.xlsx
+++ b/交流管理/项目日报/侯凯-每日要做的事.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18326"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="C1" authorId="0" shapeId="0">
+    <comment ref="C1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -121,7 +121,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -237,7 +237,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -270,26 +270,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -322,23 +305,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -515,19 +481,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="23.453125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.1796875" customWidth="1"/>
+    <col min="2" max="2" width="23.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -544,7 +510,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" s="1">
         <v>42996</v>
       </c>
@@ -558,90 +524,102 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>42997</v>
-      </c>
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A3" s="1"/>
+      <c r="D3" s="2"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" s="1">
         <v>42997</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D4" s="2">
-        <v>0</v>
-      </c>
-      <c r="E4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5" s="1">
         <v>42997</v>
       </c>
       <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="2">
+        <v>0</v>
+      </c>
+      <c r="E5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A6" s="1">
+        <v>42997</v>
+      </c>
+      <c r="B6" t="s">
         <v>9</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C6" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D6" s="2">
         <v>0.3</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A7" s="1"/>
+      <c r="D7" s="2"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A8" s="1">
         <v>42998</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B8" t="s">
         <v>11</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C8" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D8" s="2">
         <v>0.1</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A9" s="1">
         <v>42998</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B9" t="s">
         <v>9</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C9" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D9" s="2">
         <v>1</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E9" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A10" s="1"/>
+      <c r="D10" s="2"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A11" s="1">
         <v>42999</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B11" t="s">
         <v>13</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C11" t="s">
         <v>14</v>
       </c>
     </row>
@@ -658,7 +636,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -671,7 +649,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/交流管理/项目日报/侯凯-每日要做的事.xlsx
+++ b/交流管理/项目日报/侯凯-每日要做的事.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18326"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="C1" authorId="0">
+    <comment ref="C1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="21">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -115,13 +115,33 @@
   </si>
   <si>
     <t>项目能跑起来，稍微了解了下，因为是交接项目线上稳定的项目，所以不打算具体熟悉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重构代码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 新增任务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习异步框架</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -237,7 +257,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -270,9 +290,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -305,6 +342,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -481,19 +535,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="23.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.125" customWidth="1"/>
+    <col min="2" max="2" width="23.453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -510,7 +564,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>42996</v>
       </c>
@@ -524,11 +578,11 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="D3" s="2"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>42997</v>
       </c>
@@ -542,10 +596,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A5" s="1">
-        <v>42997</v>
-      </c>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
       <c r="B5" t="s">
         <v>7</v>
       </c>
@@ -559,10 +611,8 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A6" s="1">
-        <v>42997</v>
-      </c>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="1"/>
       <c r="B6" t="s">
         <v>9</v>
       </c>
@@ -573,11 +623,11 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="D7" s="2"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>42998</v>
       </c>
@@ -591,10 +641,8 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A9" s="1">
-        <v>42998</v>
-      </c>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="1"/>
       <c r="B9" t="s">
         <v>9</v>
       </c>
@@ -608,11 +656,11 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="D10" s="2"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>42999</v>
       </c>
@@ -621,6 +669,37 @@
       </c>
       <c r="C11" t="s">
         <v>14</v>
+      </c>
+      <c r="D11" s="2">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>43000</v>
+      </c>
+      <c r="B13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" s="2">
+        <v>0</v>
+      </c>
+      <c r="E13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14" s="2">
+        <v>0.5</v>
       </c>
     </row>
   </sheetData>
@@ -636,7 +715,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -649,7 +728,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/交流管理/项目日报/侯凯-每日要做的事.xlsx
+++ b/交流管理/项目日报/侯凯-每日要做的事.xlsx
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="26">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -126,15 +126,35 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> 新增任务</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>中</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>学习异步框架</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务取消</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>继续学习异步框架</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>整理编程规范</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 高</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -535,10 +555,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -688,18 +708,40 @@
         <v>0</v>
       </c>
       <c r="E13" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D14" s="2">
-        <v>0.5</v>
+        <v>0.8</v>
+      </c>
+      <c r="E14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>43003</v>
+      </c>
+      <c r="B16" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/交流管理/项目日报/侯凯-每日要做的事.xlsx
+++ b/交流管理/项目日报/侯凯-每日要做的事.xlsx
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="27">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -150,11 +150,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> 中</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 高</t>
+    <t>了解MyCat的使用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>低</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -213,10 +217,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -555,10 +562,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -732,15 +739,23 @@
       <c r="B16" t="s">
         <v>22</v>
       </c>
-      <c r="C16" t="s">
-        <v>24</v>
+      <c r="C16" s="3" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>23</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" s="3" t="s">
         <v>25</v>
       </c>
     </row>

--- a/交流管理/项目日报/侯凯-每日要做的事.xlsx
+++ b/交流管理/项目日报/侯凯-每日要做的事.xlsx
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="29">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -159,6 +159,14 @@
   </si>
   <si>
     <t>中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 接口联调</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -562,10 +570,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -742,27 +750,48 @@
       <c r="C16" s="3" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D16" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>23</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D17" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>24</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>25</v>
+      </c>
+      <c r="D18" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>43004</v>
+      </c>
+      <c r="B19" t="s">
+        <v>27</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/交流管理/项目日报/侯凯-每日要做的事.xlsx
+++ b/交流管理/项目日报/侯凯-每日要做的事.xlsx
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="31">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -159,6 +159,14 @@
   </si>
   <si>
     <t>中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 接口联调</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -570,10 +578,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -777,14 +785,35 @@
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
+      <c r="C19" s="3"/>
+      <c r="D19" s="2"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
         <v>43004</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B20" t="s">
         <v>27</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="C20" s="3" t="s">
         <v>28</v>
+      </c>
+      <c r="D20" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>43005</v>
+      </c>
+      <c r="B22" t="s">
+        <v>29</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D22" s="2">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/交流管理/项目日报/侯凯-每日要做的事.xlsx
+++ b/交流管理/项目日报/侯凯-每日要做的事.xlsx
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="33">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -175,6 +175,14 @@
   </si>
   <si>
     <t>高</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接口联调</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 高</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -578,10 +586,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E22"/>
+  <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -813,7 +821,18 @@
         <v>30</v>
       </c>
       <c r="D22" s="2">
-        <v>0</v>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>43006</v>
+      </c>
+      <c r="B24" t="s">
+        <v>31</v>
+      </c>
+      <c r="C24" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/交流管理/项目日报/侯凯-每日要做的事.xlsx
+++ b/交流管理/项目日报/侯凯-每日要做的事.xlsx
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="37">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -183,6 +183,22 @@
   </si>
   <si>
     <t xml:space="preserve"> 高</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 系统前端页面调试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 高</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 系统前端页面调试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -586,10 +602,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E24"/>
+  <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -833,6 +849,31 @@
       </c>
       <c r="C24" t="s">
         <v>32</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>43007</v>
+      </c>
+      <c r="B26" t="s">
+        <v>33</v>
+      </c>
+      <c r="C26" t="s">
+        <v>34</v>
+      </c>
+      <c r="D26" s="2">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>43008</v>
+      </c>
+      <c r="B28" t="s">
+        <v>35</v>
+      </c>
+      <c r="C28" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/交流管理/项目日报/侯凯-每日要做的事.xlsx
+++ b/交流管理/项目日报/侯凯-每日要做的事.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18431"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010"/>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="40">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -199,6 +199,18 @@
   </si>
   <si>
     <t>高</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>将词库插件这个项目结束</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -602,10 +614,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E28"/>
+  <dimension ref="A1:E30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -874,6 +886,20 @@
       </c>
       <c r="C28" t="s">
         <v>36</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>43017</v>
+      </c>
+      <c r="B30" t="s">
+        <v>37</v>
+      </c>
+      <c r="C30" t="s">
+        <v>38</v>
+      </c>
+      <c r="D30" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/交流管理/项目日报/侯凯-每日要做的事.xlsx
+++ b/交流管理/项目日报/侯凯-每日要做的事.xlsx
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="42">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -210,7 +210,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
+    <t>词库项目文档书写</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 临时安排写文档的工作</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -614,14 +622,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E30"/>
+  <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="9.26953125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23.453125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="21.08984375" customWidth="1"/>
   </cols>
@@ -798,7 +807,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>23</v>
       </c>
@@ -809,7 +818,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>24</v>
       </c>
@@ -820,11 +829,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C19" s="3"/>
       <c r="D19" s="2"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>43004</v>
       </c>
@@ -838,7 +847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>43005</v>
       </c>
@@ -852,7 +861,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>43006</v>
       </c>
@@ -863,7 +872,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>43007</v>
       </c>
@@ -877,7 +886,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>43008</v>
       </c>
@@ -888,7 +897,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>43017</v>
       </c>
@@ -898,8 +907,22 @@
       <c r="C30" t="s">
         <v>38</v>
       </c>
-      <c r="D30" t="s">
+      <c r="D30" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="E30" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>43018</v>
+      </c>
+      <c r="B32" t="s">
         <v>39</v>
+      </c>
+      <c r="C32" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/交流管理/项目日报/侯凯-每日要做的事.xlsx
+++ b/交流管理/项目日报/侯凯-每日要做的事.xlsx
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="45">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -219,6 +219,18 @@
   </si>
   <si>
     <t xml:space="preserve"> 临时安排写文档的工作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目架构</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 高</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -226,7 +238,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -256,6 +268,13 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -277,11 +296,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="58" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -622,307 +642,326 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E32"/>
+  <dimension ref="A1:E34"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+      <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.26953125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.453125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.08984375" customWidth="1"/>
+    <col min="1" max="1" width="9.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="8.7265625" style="1"/>
+    <col min="5" max="5" width="21.08984375" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
+      <c r="A2" s="2">
         <v>42996</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="3">
         <v>0.8</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
-      <c r="D3" s="2"/>
+      <c r="A3" s="2"/>
+      <c r="D3" s="3"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
+      <c r="A4" s="2">
         <v>42997</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
-      <c r="B5" t="s">
+      <c r="A5" s="2"/>
+      <c r="B5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="3">
         <v>0</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="1" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
-      <c r="B6" t="s">
+      <c r="A6" s="2"/>
+      <c r="B6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="3">
         <v>0.3</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
-      <c r="D7" s="2"/>
+      <c r="A7" s="2"/>
+      <c r="D7" s="3"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
+      <c r="A8" s="2">
         <v>42998</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8" s="3">
         <v>0.1</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
-      <c r="B9" t="s">
+      <c r="A9" s="2"/>
+      <c r="B9" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9" s="3">
         <v>1</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="1"/>
-      <c r="D10" s="2"/>
+      <c r="A10" s="2"/>
+      <c r="D10" s="3"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
+      <c r="A11" s="2">
         <v>42999</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="2">
+      <c r="D11" s="3">
         <v>0.5</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
+      <c r="A13" s="2">
         <v>43000</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D13" s="2">
+      <c r="D13" s="3">
         <v>0</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E13" s="1" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
+      <c r="B14" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D14" s="2">
+      <c r="D14" s="3">
         <v>0.8</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E14" s="1" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
+      <c r="A16" s="2">
         <v>43003</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C16" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D16" s="2">
+      <c r="D16" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
+      <c r="B17" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C17" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D17" s="2">
+      <c r="D17" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
+      <c r="B18" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="C18" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D18" s="2">
+      <c r="D18" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C19" s="3"/>
-      <c r="D19" s="2"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="3"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
+      <c r="A20" s="2">
         <v>43004</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="C20" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D20" s="2">
+      <c r="D20" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="1">
+      <c r="A22" s="2">
         <v>43005</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="C22" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D22" s="2">
+      <c r="D22" s="3">
         <v>0.5</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="1">
+      <c r="A24" s="2">
         <v>43006</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C24" s="1" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="1">
+      <c r="A26" s="2">
         <v>43007</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C26" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D26" s="2">
+      <c r="D26" s="3">
         <v>0.3</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="1">
+      <c r="A28" s="2">
         <v>43008</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C28" s="1" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="1">
+      <c r="A30" s="2">
         <v>43017</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C30" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D30" s="2">
+      <c r="D30" s="3">
         <v>0.9</v>
       </c>
-      <c r="E30" t="s">
+      <c r="E30" s="1" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="1">
+      <c r="A32" s="2">
         <v>43018</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C32" s="1" t="s">
         <v>40</v>
+      </c>
+      <c r="D32" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="2">
+        <v>43019</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/交流管理/项目日报/侯凯-每日要做的事.xlsx
+++ b/交流管理/项目日报/侯凯-每日要做的事.xlsx
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="46">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -182,18 +182,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> 高</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve"> 系统前端页面调试</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> 高</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve"> 系统前端页面调试</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -222,15 +214,27 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>项目架构</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目架构</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t xml:space="preserve"> </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>项目架构</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 高</t>
+    <t>项目工作量预估</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -296,13 +300,30 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="58" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -642,32 +663,33 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E34"/>
+  <dimension ref="A1:E37"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="E35" sqref="E35"/>
+      <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.26953125" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="8.7265625" style="1"/>
+    <col min="3" max="3" width="8.7265625" style="3"/>
+    <col min="4" max="4" width="8.7265625" style="4"/>
     <col min="5" max="5" width="21.08984375" style="1" customWidth="1"/>
     <col min="6" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
@@ -675,46 +697,46 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
+      <c r="A2" s="8">
         <v>42996</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2" s="5">
         <v>0.8</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
-      <c r="D3" s="3"/>
+      <c r="A3" s="8"/>
+      <c r="D3" s="5"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
+      <c r="A4" s="8">
         <v>42997</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
+      <c r="A5" s="8"/>
       <c r="B5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="5">
         <v>0</v>
       </c>
       <c r="E5" s="1" t="s">
@@ -722,44 +744,44 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="2"/>
+      <c r="A6" s="8"/>
       <c r="B6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="5">
         <v>0.3</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="2"/>
-      <c r="D7" s="3"/>
+      <c r="A7" s="8"/>
+      <c r="D7" s="5"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
+      <c r="A8" s="8">
         <v>42998</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="5">
         <v>0.1</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="2"/>
+      <c r="A9" s="8"/>
       <c r="B9" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9" s="5">
         <v>1</v>
       </c>
       <c r="E9" s="1" t="s">
@@ -767,34 +789,34 @@
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="2"/>
-      <c r="D10" s="3"/>
+      <c r="A10" s="8"/>
+      <c r="D10" s="5"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="2">
+      <c r="A11" s="8">
         <v>42999</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D11" s="5">
         <v>0.5</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="2">
+      <c r="A13" s="8">
         <v>43000</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D13" s="3">
+      <c r="D13" s="5">
         <v>0</v>
       </c>
       <c r="E13" s="1" t="s">
@@ -805,10 +827,10 @@
       <c r="B14" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C14" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="5">
         <v>0.8</v>
       </c>
       <c r="E14" s="1" t="s">
@@ -816,16 +838,16 @@
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="2">
+      <c r="A16" s="8">
         <v>43003</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C16" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D16" s="3">
+      <c r="D16" s="5">
         <v>1</v>
       </c>
     </row>
@@ -833,10 +855,10 @@
       <c r="B17" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C17" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17" s="5">
         <v>1</v>
       </c>
     </row>
@@ -844,124 +866,145 @@
       <c r="B18" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="C18" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C19" s="4"/>
-      <c r="D19" s="3"/>
+      <c r="D19" s="5"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="2">
+      <c r="A20" s="8">
         <v>43004</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="C20" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D20" s="3">
+      <c r="D20" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="2">
+      <c r="A22" s="8">
         <v>43005</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C22" s="4" t="s">
+      <c r="C22" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D22" s="3">
+      <c r="D22" s="5">
         <v>0.5</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="2">
+      <c r="A24" s="8">
         <v>43006</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="C24" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="8">
+        <v>43007</v>
+      </c>
+      <c r="B26" s="1" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="2">
-        <v>43007</v>
-      </c>
-      <c r="B26" s="1" t="s">
+      <c r="C26" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D26" s="5">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="8">
+        <v>43008</v>
+      </c>
+      <c r="B28" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="C28" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="D26" s="3">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="2">
-        <v>43008</v>
-      </c>
-      <c r="B28" s="1" t="s">
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="8">
+        <v>43017</v>
+      </c>
+      <c r="B30" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="C30" s="3" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="2">
-        <v>43017</v>
-      </c>
-      <c r="B30" s="1" t="s">
+      <c r="D30" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="8">
+        <v>43018</v>
+      </c>
+      <c r="B32" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="C32" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D30" s="3">
-        <v>0.9</v>
-      </c>
-      <c r="E30" s="1" t="s">
+      <c r="D32" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="8">
+        <v>43019</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D34" s="6">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="9">
+        <v>43020</v>
+      </c>
+      <c r="B36" s="2" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="2">
-        <v>43018</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D32" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="2">
-        <v>43019</v>
-      </c>
-      <c r="B34" s="1" t="s">
+      <c r="C36" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B37" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C34" s="1" t="s">
+      <c r="C37" s="7" t="s">
         <v>44</v>
-      </c>
-      <c r="D34" s="3" t="s">
-        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/交流管理/项目日报/侯凯-每日要做的事.xlsx
+++ b/交流管理/项目日报/侯凯-每日要做的事.xlsx
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="48">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -235,6 +235,14 @@
   </si>
   <si>
     <t>中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目架构</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -300,29 +308,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="58" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -663,44 +661,44 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E37"/>
+  <dimension ref="A1:E39"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B38" sqref="B38"/>
+      <selection activeCell="A40" sqref="A40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.26953125" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.453125" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.7265625" style="3"/>
-    <col min="4" max="4" width="8.7265625" style="4"/>
-    <col min="5" max="5" width="21.08984375" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.7265625" style="1"/>
+    <col min="4" max="4" width="8.7265625" style="1"/>
+    <col min="5" max="5" width="21.08984375" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="8.7265625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="8">
+      <c r="A2" s="4">
         <v>42996</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C2" s="3" t="s">
@@ -711,14 +709,14 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="8"/>
+      <c r="A3" s="4"/>
       <c r="D3" s="5"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="8">
+      <c r="A4" s="4">
         <v>42997</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C4" s="3" t="s">
@@ -729,8 +727,8 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="8"/>
-      <c r="B5" s="1" t="s">
+      <c r="A5" s="4"/>
+      <c r="B5" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C5" s="3" t="s">
@@ -739,13 +737,13 @@
       <c r="D5" s="5">
         <v>0</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E5" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="8"/>
-      <c r="B6" s="1" t="s">
+      <c r="A6" s="4"/>
+      <c r="B6" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C6" s="3" t="s">
@@ -756,14 +754,14 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="8"/>
+      <c r="A7" s="4"/>
       <c r="D7" s="5"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="8">
+      <c r="A8" s="4">
         <v>42998</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C8" s="3" t="s">
@@ -774,8 +772,8 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="8"/>
-      <c r="B9" s="1" t="s">
+      <c r="A9" s="4"/>
+      <c r="B9" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C9" s="3" t="s">
@@ -784,19 +782,19 @@
       <c r="D9" s="5">
         <v>1</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="E9" s="2" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="8"/>
+      <c r="A10" s="4"/>
       <c r="D10" s="5"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="8">
+      <c r="A11" s="4">
         <v>42999</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C11" s="3" t="s">
@@ -807,10 +805,10 @@
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="8">
+      <c r="A13" s="4">
         <v>43000</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C13" s="3" t="s">
@@ -819,12 +817,12 @@
       <c r="D13" s="5">
         <v>0</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="E13" s="2" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C14" s="3" t="s">
@@ -833,15 +831,15 @@
       <c r="D14" s="5">
         <v>0.8</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="E14" s="2" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="8">
+      <c r="A16" s="4">
         <v>43003</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C16" s="3" t="s">
@@ -852,7 +850,7 @@
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B17" s="1" t="s">
+      <c r="B17" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C17" s="3" t="s">
@@ -863,7 +861,7 @@
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B18" s="1" t="s">
+      <c r="B18" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C18" s="3" t="s">
@@ -877,10 +875,10 @@
       <c r="D19" s="5"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="8">
+      <c r="A20" s="4">
         <v>43004</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B20" s="2" t="s">
         <v>27</v>
       </c>
       <c r="C20" s="3" t="s">
@@ -891,10 +889,10 @@
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="8">
+      <c r="A22" s="4">
         <v>43005</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B22" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C22" s="3" t="s">
@@ -905,24 +903,24 @@
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="8">
+      <c r="A24" s="4">
         <v>43006</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B24" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C24" s="7" t="s">
+      <c r="C24" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="8">
+      <c r="A26" s="4">
         <v>43007</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B26" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C26" s="7" t="s">
+      <c r="C26" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D26" s="5">
@@ -930,10 +928,10 @@
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="8">
+      <c r="A28" s="4">
         <v>43008</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B28" s="2" t="s">
         <v>33</v>
       </c>
       <c r="C28" s="3" t="s">
@@ -941,10 +939,10 @@
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="8">
+      <c r="A30" s="4">
         <v>43017</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="B30" s="2" t="s">
         <v>35</v>
       </c>
       <c r="C30" s="3" t="s">
@@ -953,15 +951,15 @@
       <c r="D30" s="5">
         <v>0.9</v>
       </c>
-      <c r="E30" s="1" t="s">
+      <c r="E30" s="2" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="8">
+      <c r="A32" s="4">
         <v>43018</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="B32" s="2" t="s">
         <v>37</v>
       </c>
       <c r="C32" s="3" t="s">
@@ -972,30 +970,30 @@
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="8">
+      <c r="A34" s="4">
         <v>43019</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="B34" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C34" s="7" t="s">
+      <c r="C34" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D34" s="6">
+      <c r="D34" s="5">
         <v>0.4</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="9">
+      <c r="A36" s="4">
         <v>43020</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C36" s="7" t="s">
+      <c r="C36" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="D36" s="6" t="s">
+      <c r="D36" s="5" t="s">
         <v>42</v>
       </c>
     </row>
@@ -1003,8 +1001,22 @@
       <c r="B37" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C37" s="7" t="s">
+      <c r="C37" s="3" t="s">
         <v>44</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="4">
+        <v>43021</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D39" s="5">
+        <v>0.6</v>
       </c>
     </row>
   </sheetData>

--- a/交流管理/项目日报/侯凯-每日要做的事.xlsx
+++ b/交流管理/项目日报/侯凯-每日要做的事.xlsx
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="49">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -222,10 +222,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>项目工作量预估</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -235,6 +231,14 @@
   </si>
   <si>
     <t>中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目架构</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -661,10 +665,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E39"/>
+  <dimension ref="A1:E41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A40" sqref="A40"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -912,6 +916,9 @@
       <c r="C24" s="3" t="s">
         <v>5</v>
       </c>
+      <c r="D24" s="5">
+        <v>1</v>
+      </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
@@ -937,6 +944,9 @@
       <c r="C28" s="3" t="s">
         <v>34</v>
       </c>
+      <c r="D28" s="5">
+        <v>1</v>
+      </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="4">
@@ -949,7 +959,7 @@
         <v>36</v>
       </c>
       <c r="D30" s="5">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>39</v>
@@ -991,18 +1001,21 @@
         <v>41</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="D36" s="5" t="s">
-        <v>42</v>
+        <v>44</v>
+      </c>
+      <c r="D36" s="5">
+        <v>0.5</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B37" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C37" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C37" s="3" t="s">
-        <v>44</v>
+      <c r="D37" s="5">
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
@@ -1010,13 +1023,24 @@
         <v>43021</v>
       </c>
       <c r="B39" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C39" s="3" t="s">
         <v>46</v>
-      </c>
-      <c r="C39" s="3" t="s">
-        <v>47</v>
       </c>
       <c r="D39" s="5">
         <v>0.6</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="4">
+        <v>43024</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>

--- a/交流管理/项目日报/侯凯-每日要做的事.xlsx
+++ b/交流管理/项目日报/侯凯-每日要做的事.xlsx
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="51">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -243,6 +243,14 @@
   </si>
   <si>
     <t>项目架构</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目架构 封装redis</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -665,10 +673,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E41"/>
+  <dimension ref="A1:E43"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <selection activeCell="D43" sqref="D43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -1041,6 +1049,20 @@
       </c>
       <c r="C41" s="3" t="s">
         <v>48</v>
+      </c>
+      <c r="D41" s="5">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="4">
+        <v>43025</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/交流管理/项目日报/侯凯-每日要做的事.xlsx
+++ b/交流管理/项目日报/侯凯-每日要做的事.xlsx
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="55">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -251,6 +251,22 @@
   </si>
   <si>
     <t>项目架构 封装redis</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>书写面试标准</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>架构中集成dubbo</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -320,7 +336,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -334,6 +350,10 @@
     </xf>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -673,10 +693,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E43"/>
+  <dimension ref="A1:E46"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="D43" sqref="D43"/>
+      <selection activeCell="D46" sqref="D46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -1063,6 +1083,28 @@
       </c>
       <c r="C43" s="3" t="s">
         <v>50</v>
+      </c>
+      <c r="D43" s="5">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="4">
+        <v>43026</v>
+      </c>
+      <c r="B45" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C45" s="7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B46" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C46" s="7" t="s">
+        <v>54</v>
       </c>
     </row>
   </sheetData>

--- a/交流管理/项目日报/侯凯-每日要做的事.xlsx
+++ b/交流管理/项目日报/侯凯-每日要做的事.xlsx
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="58">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -271,6 +271,18 @@
   </si>
   <si>
     <t>高</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dubbo集成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>老牛比较忙</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -336,7 +348,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -350,10 +362,6 @@
     </xf>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -693,10 +701,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E46"/>
+  <dimension ref="A1:E48"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="D46" sqref="D46"/>
+      <selection activeCell="B47" sqref="B47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -1007,7 +1015,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="4">
         <v>43019</v>
       </c>
@@ -1021,7 +1029,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="4">
         <v>43020</v>
       </c>
@@ -1035,7 +1043,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B37" s="2" t="s">
         <v>42</v>
       </c>
@@ -1046,7 +1054,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="4">
         <v>43021</v>
       </c>
@@ -1060,7 +1068,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="4">
         <v>43024</v>
       </c>
@@ -1074,7 +1082,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="4">
         <v>43025</v>
       </c>
@@ -1088,23 +1096,43 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="4">
         <v>43026</v>
       </c>
-      <c r="B45" s="6" t="s">
+      <c r="B45" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C45" s="7" t="s">
+      <c r="C45" s="3" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B46" s="6" t="s">
+      <c r="D45" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B46" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C46" s="7" t="s">
+      <c r="C46" s="3" t="s">
         <v>54</v>
+      </c>
+      <c r="D46" s="5">
+        <v>0</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" s="4">
+        <v>43027</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>

--- a/交流管理/项目日报/侯凯-每日要做的事.xlsx
+++ b/交流管理/项目日报/侯凯-每日要做的事.xlsx
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="60">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -283,6 +283,14 @@
   </si>
   <si>
     <t>老牛比较忙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dubbo测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -701,10 +709,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E48"/>
+  <dimension ref="A1:E50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="B47" sqref="B47"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="D50" sqref="D50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -1133,6 +1141,20 @@
       </c>
       <c r="C48" s="3" t="s">
         <v>56</v>
+      </c>
+      <c r="D48" s="5">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="4">
+        <v>43028</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>

--- a/交流管理/项目日报/侯凯-每日要做的事.xlsx
+++ b/交流管理/项目日报/侯凯-每日要做的事.xlsx
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="61">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -291,6 +291,10 @@
   </si>
   <si>
     <t>高</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sla初步设计</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -709,10 +713,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E50"/>
+  <dimension ref="A1:E52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="D50" sqref="D50"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="E50" sqref="E50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -1146,7 +1150,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="4">
         <v>43028</v>
       </c>
@@ -1155,6 +1159,17 @@
       </c>
       <c r="C50" s="3" t="s">
         <v>59</v>
+      </c>
+      <c r="D50" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" s="4">
+        <v>43031</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>

--- a/交流管理/项目日报/侯凯-每日要做的事.xlsx
+++ b/交流管理/项目日报/侯凯-每日要做的事.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18431"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18528"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010"/>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="63">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -295,6 +295,14 @@
   </si>
   <si>
     <t>sla初步设计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习zookeeper</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -360,7 +368,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -374,6 +382,10 @@
     </xf>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -713,10 +725,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E52"/>
+  <dimension ref="A1:E54"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="E50" sqref="E50"/>
+      <selection activeCell="B53" sqref="B53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -1170,6 +1182,17 @@
       </c>
       <c r="B52" s="2" t="s">
         <v>60</v>
+      </c>
+      <c r="C52" s="7" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" s="4">
+        <v>43032</v>
+      </c>
+      <c r="B54" s="6" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>

--- a/交流管理/项目日报/侯凯-每日要做的事.xlsx
+++ b/交流管理/项目日报/侯凯-每日要做的事.xlsx
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="67">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -303,6 +303,22 @@
   </si>
   <si>
     <t>学习zookeeper</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sla初步开发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sla框架修改优化</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -725,10 +741,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E54"/>
+  <dimension ref="A1:E56"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="B53" sqref="B53"/>
+      <selection activeCell="E54" sqref="E54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -1162,7 +1178,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="4">
         <v>43028</v>
       </c>
@@ -1176,7 +1192,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="4">
         <v>43031</v>
       </c>
@@ -1186,13 +1202,36 @@
       <c r="C52" s="7" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D52" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="4">
         <v>43032</v>
       </c>
       <c r="B54" s="6" t="s">
         <v>62</v>
+      </c>
+      <c r="C54" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="D54" s="5">
+        <v>0</v>
+      </c>
+      <c r="E54" s="6" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" s="4">
+        <v>43033</v>
+      </c>
+      <c r="B56" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="C56" s="7" t="s">
+        <v>65</v>
       </c>
     </row>
   </sheetData>

--- a/交流管理/项目日报/侯凯-每日要做的事.xlsx
+++ b/交流管理/项目日报/侯凯-每日要做的事.xlsx
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="70">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -319,6 +319,18 @@
   </si>
   <si>
     <t>sla框架修改优化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>云谷插入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>云谷项目UC模块需求</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -741,10 +753,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E56"/>
+  <dimension ref="A1:E58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="E54" sqref="E54"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="A60" sqref="A60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -1232,6 +1244,23 @@
       </c>
       <c r="C56" s="7" t="s">
         <v>65</v>
+      </c>
+      <c r="D56" s="5">
+        <v>0</v>
+      </c>
+      <c r="E56" s="6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" s="4">
+        <v>43034</v>
+      </c>
+      <c r="B58" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="C58" s="7" t="s">
+        <v>69</v>
       </c>
     </row>
   </sheetData>

--- a/交流管理/项目日报/侯凯-每日要做的事.xlsx
+++ b/交流管理/项目日报/侯凯-每日要做的事.xlsx
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="73">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -327,6 +327,18 @@
   </si>
   <si>
     <t>云谷项目UC模块需求</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10月27</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>云谷AR模块代码跑起来</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -396,7 +408,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -414,6 +426,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -753,10 +768,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E58"/>
+  <dimension ref="A1:E60"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="A60" sqref="A60"/>
+      <selection activeCell="D63" sqref="D63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -1261,6 +1276,20 @@
       </c>
       <c r="C58" s="7" t="s">
         <v>69</v>
+      </c>
+      <c r="D58" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="B60" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="C60" s="7" t="s">
+        <v>72</v>
       </c>
     </row>
   </sheetData>

--- a/交流管理/项目日报/侯凯-每日要做的事.xlsx
+++ b/交流管理/项目日报/侯凯-每日要做的事.xlsx
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="75">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -339,6 +339,14 @@
   </si>
   <si>
     <t>云谷AR模块代码跑起来</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>云谷项目整理文档</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -768,10 +776,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E60"/>
+  <dimension ref="A1:E62"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="D63" sqref="D63"/>
+      <selection activeCell="D62" sqref="D62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -1290,6 +1298,20 @@
       </c>
       <c r="C60" s="7" t="s">
         <v>72</v>
+      </c>
+      <c r="D60" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62" s="4">
+        <v>43038</v>
+      </c>
+      <c r="B62" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="C62" s="7" t="s">
+        <v>74</v>
       </c>
     </row>
   </sheetData>

--- a/交流管理/项目日报/侯凯-每日要做的事.xlsx
+++ b/交流管理/项目日报/侯凯-每日要做的事.xlsx
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="77">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -351,6 +351,14 @@
   </si>
   <si>
     <t>高</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被各种琐事弄得没时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10月31</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -776,10 +784,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E62"/>
+  <dimension ref="A1:E64"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="D62" sqref="D62"/>
+      <selection activeCell="B64" sqref="B64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -1312,6 +1320,20 @@
       </c>
       <c r="C62" s="7" t="s">
         <v>74</v>
+      </c>
+      <c r="D62" s="5">
+        <v>0</v>
+      </c>
+      <c r="E62" s="6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="B64" s="6" t="s">
+        <v>73</v>
       </c>
     </row>
   </sheetData>

--- a/交流管理/项目日报/侯凯-每日要做的事.xlsx
+++ b/交流管理/项目日报/侯凯-每日要做的事.xlsx
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="79">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -358,7 +358,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>10月31</t>
+    <t>高</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>帮忙处理sla问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>云谷项目文档整理</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -424,7 +432,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -444,6 +452,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -784,10 +795,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E64"/>
+  <dimension ref="A1:E66"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="B64" sqref="B64"/>
+      <selection activeCell="D66" sqref="D66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -1329,11 +1340,31 @@
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A64" s="8" t="s">
-        <v>76</v>
+      <c r="A64" s="9">
+        <v>43039</v>
       </c>
       <c r="B64" s="6" t="s">
         <v>73</v>
+      </c>
+      <c r="C64" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="D64" s="5">
+        <v>0</v>
+      </c>
+      <c r="E64" s="6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" s="4">
+        <v>43040</v>
+      </c>
+      <c r="B66" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="C66" s="7" t="s">
+        <v>76</v>
       </c>
     </row>
   </sheetData>

--- a/交流管理/项目日报/侯凯-每日要做的事.xlsx
+++ b/交流管理/项目日报/侯凯-每日要做的事.xlsx
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="81">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -367,6 +367,14 @@
   </si>
   <si>
     <t>云谷项目文档整理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>云谷项目演示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -795,10 +803,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E66"/>
+  <dimension ref="A1:E69"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="D66" sqref="D66"/>
+      <selection activeCell="C69" sqref="C69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -1356,7 +1364,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="4">
         <v>43040</v>
       </c>
@@ -1365,6 +1373,28 @@
       </c>
       <c r="C66" s="7" t="s">
         <v>76</v>
+      </c>
+      <c r="D66" s="5">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" s="4">
+        <v>43041</v>
+      </c>
+      <c r="B68" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C68" s="7" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B69" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="C69" s="7" t="s">
+        <v>80</v>
       </c>
     </row>
   </sheetData>

--- a/交流管理/项目日报/侯凯-每日要做的事.xlsx
+++ b/交流管理/项目日报/侯凯-每日要做的事.xlsx
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="84">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -371,6 +371,18 @@
   </si>
   <si>
     <t>云谷项目演示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11月3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>研究网路安全</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -803,10 +815,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E69"/>
+  <dimension ref="A1:E71"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="C69" sqref="C69"/>
+      <selection activeCell="C70" sqref="C70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -1388,6 +1400,9 @@
       <c r="C68" s="7" t="s">
         <v>80</v>
       </c>
+      <c r="D68" s="5">
+        <v>1</v>
+      </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B69" s="6" t="s">
@@ -1395,6 +1410,20 @@
       </c>
       <c r="C69" s="7" t="s">
         <v>80</v>
+      </c>
+      <c r="D69" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="B71" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="C71" s="7" t="s">
+        <v>83</v>
       </c>
     </row>
   </sheetData>

--- a/交流管理/项目日报/侯凯-每日要做的事.xlsx
+++ b/交流管理/项目日报/侯凯-每日要做的事.xlsx
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="86">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -378,15 +378,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>11月3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>研究网路安全</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>高</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>网站token验证</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被各种琐事弄得时间不够</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -815,10 +823,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E71"/>
+  <dimension ref="A1:E73"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="C70" sqref="C70"/>
+      <selection activeCell="E71" sqref="E71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -1376,7 +1384,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="4">
         <v>43040</v>
       </c>
@@ -1390,7 +1398,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="4">
         <v>43041</v>
       </c>
@@ -1404,7 +1412,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B69" s="6" t="s">
         <v>78</v>
       </c>
@@ -1415,15 +1423,32 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A71" s="8" t="s">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71" s="9">
+        <v>43042</v>
+      </c>
+      <c r="B71" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="B71" s="6" t="s">
+      <c r="C71" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="C71" s="7" t="s">
+      <c r="D71" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="E71" s="6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73" s="4">
+        <v>43045</v>
+      </c>
+      <c r="B73" s="6" t="s">
         <v>83</v>
+      </c>
+      <c r="C73" s="7" t="s">
+        <v>84</v>
       </c>
     </row>
   </sheetData>

--- a/交流管理/项目日报/侯凯-每日要做的事.xlsx
+++ b/交流管理/项目日报/侯凯-每日要做的事.xlsx
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="88">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -395,6 +395,14 @@
   </si>
   <si>
     <t>被各种琐事弄得时间不够</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gradle学习</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -823,10 +831,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E73"/>
+  <dimension ref="A1:E75"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="E71" sqref="E71"/>
+      <selection activeCell="E74" sqref="E74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -1449,6 +1457,20 @@
       </c>
       <c r="C73" s="7" t="s">
         <v>84</v>
+      </c>
+      <c r="D73" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75" s="4">
+        <v>43046</v>
+      </c>
+      <c r="B75" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="C75" s="7" t="s">
+        <v>87</v>
       </c>
     </row>
   </sheetData>

--- a/交流管理/项目日报/侯凯-每日要做的事.xlsx
+++ b/交流管理/项目日报/侯凯-每日要做的事.xlsx
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="90">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -399,6 +399,14 @@
   </si>
   <si>
     <t>gradle学习</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新框架环境</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -831,10 +839,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E75"/>
+  <dimension ref="A1:E77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="E74" sqref="E74"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="D77" sqref="D77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -1471,6 +1479,20 @@
       </c>
       <c r="C75" s="7" t="s">
         <v>87</v>
+      </c>
+      <c r="D75" s="5">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A77" s="9">
+        <v>43047</v>
+      </c>
+      <c r="B77" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="C77" s="7" t="s">
+        <v>89</v>
       </c>
     </row>
   </sheetData>

--- a/交流管理/项目日报/侯凯-每日要做的事.xlsx
+++ b/交流管理/项目日报/侯凯-每日要做的事.xlsx
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="92">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -407,6 +407,14 @@
   </si>
   <si>
     <t>新框架环境</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>办公室整理云谷设计</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -839,10 +847,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E77"/>
+  <dimension ref="A1:E79"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="D77" sqref="D77"/>
+      <selection activeCell="D79" sqref="D79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -1493,6 +1501,20 @@
       </c>
       <c r="C77" s="7" t="s">
         <v>89</v>
+      </c>
+      <c r="D77" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A79" s="4">
+        <v>43048</v>
+      </c>
+      <c r="B79" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="C79" s="7" t="s">
+        <v>91</v>
       </c>
     </row>
   </sheetData>

--- a/交流管理/项目日报/侯凯-每日要做的事.xlsx
+++ b/交流管理/项目日报/侯凯-每日要做的事.xlsx
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="93">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -182,14 +182,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> 系统前端页面调试</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 系统前端页面调试</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>高</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -419,6 +411,18 @@
   </si>
   <si>
     <t>高</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>云谷框架</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统前端页面调试</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -847,10 +851,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E79"/>
+  <dimension ref="A1:E81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="D79" sqref="D79"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -1106,8 +1110,8 @@
       <c r="A26" s="4">
         <v>43007</v>
       </c>
-      <c r="B26" s="2" t="s">
-        <v>32</v>
+      <c r="B26" s="6" t="s">
+        <v>92</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>5</v>
@@ -1120,11 +1124,11 @@
       <c r="A28" s="4">
         <v>43008</v>
       </c>
-      <c r="B28" s="2" t="s">
-        <v>33</v>
+      <c r="B28" s="6" t="s">
+        <v>92</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D28" s="5">
         <v>1</v>
@@ -1135,16 +1139,16 @@
         <v>43017</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D30" s="5">
         <v>1</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
@@ -1152,10 +1156,10 @@
         <v>43018</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D32" s="5">
         <v>1</v>
@@ -1166,7 +1170,7 @@
         <v>43019</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C34" s="3" t="s">
         <v>5</v>
@@ -1180,10 +1184,10 @@
         <v>43020</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D36" s="5">
         <v>0.5</v>
@@ -1191,10 +1195,10 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B37" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D37" s="5">
         <v>1</v>
@@ -1205,10 +1209,10 @@
         <v>43021</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D39" s="5">
         <v>0.6</v>
@@ -1219,10 +1223,10 @@
         <v>43024</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D41" s="5">
         <v>0.6</v>
@@ -1233,10 +1237,10 @@
         <v>43025</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D43" s="5">
         <v>0.7</v>
@@ -1247,10 +1251,10 @@
         <v>43026</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D45" s="5">
         <v>1</v>
@@ -1258,16 +1262,16 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B46" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D46" s="5">
         <v>0</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
@@ -1275,10 +1279,10 @@
         <v>43027</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D48" s="5">
         <v>0.5</v>
@@ -1289,10 +1293,10 @@
         <v>43028</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D50" s="5">
         <v>1</v>
@@ -1303,10 +1307,10 @@
         <v>43031</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C52" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D52" s="5">
         <v>1</v>
@@ -1317,16 +1321,16 @@
         <v>43032</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C54" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D54" s="5">
         <v>0</v>
       </c>
       <c r="E54" s="6" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
@@ -1334,16 +1338,16 @@
         <v>43033</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C56" s="7" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D56" s="5">
         <v>0</v>
       </c>
       <c r="E56" s="6" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
@@ -1351,10 +1355,10 @@
         <v>43034</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C58" s="7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D58" s="5">
         <v>1</v>
@@ -1362,13 +1366,13 @@
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="B60" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="C60" s="7" t="s">
         <v>70</v>
-      </c>
-      <c r="B60" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="C60" s="7" t="s">
-        <v>72</v>
       </c>
       <c r="D60" s="5">
         <v>1</v>
@@ -1379,16 +1383,16 @@
         <v>43038</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C62" s="7" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D62" s="5">
         <v>0</v>
       </c>
       <c r="E62" s="6" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
@@ -1396,16 +1400,16 @@
         <v>43039</v>
       </c>
       <c r="B64" s="6" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C64" s="7" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D64" s="5">
         <v>0</v>
       </c>
       <c r="E64" s="6" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
@@ -1413,10 +1417,10 @@
         <v>43040</v>
       </c>
       <c r="B66" s="6" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C66" s="7" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D66" s="5">
         <v>0.5</v>
@@ -1427,10 +1431,10 @@
         <v>43041</v>
       </c>
       <c r="B68" s="6" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C68" s="7" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D68" s="5">
         <v>1</v>
@@ -1438,10 +1442,10 @@
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B69" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="C69" s="7" t="s">
         <v>78</v>
-      </c>
-      <c r="C69" s="7" t="s">
-        <v>80</v>
       </c>
       <c r="D69" s="5">
         <v>1</v>
@@ -1452,16 +1456,16 @@
         <v>43042</v>
       </c>
       <c r="B71" s="6" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C71" s="7" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D71" s="5">
         <v>0.5</v>
       </c>
       <c r="E71" s="6" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
@@ -1469,10 +1473,10 @@
         <v>43045</v>
       </c>
       <c r="B73" s="6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C73" s="7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D73" s="5">
         <v>1</v>
@@ -1483,10 +1487,10 @@
         <v>43046</v>
       </c>
       <c r="B75" s="6" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C75" s="7" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D75" s="5">
         <v>0.9</v>
@@ -1497,10 +1501,10 @@
         <v>43047</v>
       </c>
       <c r="B77" s="6" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C77" s="7" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D77" s="5">
         <v>1</v>
@@ -1511,9 +1515,23 @@
         <v>43048</v>
       </c>
       <c r="B79" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="C79" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="D79" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" s="9">
+        <v>43049</v>
+      </c>
+      <c r="B81" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="C79" s="7" t="s">
+      <c r="C81" s="7" t="s">
         <v>91</v>
       </c>
     </row>

--- a/交流管理/项目日报/侯凯-每日要做的事.xlsx
+++ b/交流管理/项目日报/侯凯-每日要做的事.xlsx
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="95">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -423,6 +423,14 @@
   </si>
   <si>
     <t>系统前端页面调试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>云谷需求最后确定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -851,10 +859,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E81"/>
+  <dimension ref="A1:E83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView tabSelected="1" topLeftCell="A68" workbookViewId="0">
+      <selection activeCell="C83" sqref="C83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -1524,7 +1532,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="9">
         <v>43049</v>
       </c>
@@ -1533,6 +1541,20 @@
       </c>
       <c r="C81" s="7" t="s">
         <v>91</v>
+      </c>
+      <c r="D81" s="5">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83" s="4">
+        <v>43052</v>
+      </c>
+      <c r="B83" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="C83" s="7" t="s">
+        <v>94</v>
       </c>
     </row>
   </sheetData>

--- a/交流管理/项目日报/侯凯-每日要做的事.xlsx
+++ b/交流管理/项目日报/侯凯-每日要做的事.xlsx
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="98">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -423,6 +423,18 @@
   </si>
   <si>
     <t>系统前端页面调试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>云谷需求最后确定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吴老师没来</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -859,10 +871,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E83"/>
+  <dimension ref="A1:E85"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A68" workbookViewId="0">
-      <selection activeCell="C83" sqref="C83"/>
+      <selection activeCell="D85" sqref="D85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -1532,7 +1544,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" s="9">
         <v>43049</v>
       </c>
@@ -1546,7 +1558,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" s="4">
         <v>43052</v>
       </c>
@@ -1555,6 +1567,23 @@
       </c>
       <c r="C83" s="7" t="s">
         <v>94</v>
+      </c>
+      <c r="D83" s="5">
+        <v>0</v>
+      </c>
+      <c r="E83" s="6" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A85" s="4">
+        <v>43053</v>
+      </c>
+      <c r="B85" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="C85" s="7" t="s">
+        <v>97</v>
       </c>
     </row>
   </sheetData>

--- a/交流管理/项目日报/侯凯-每日要做的事.xlsx
+++ b/交流管理/项目日报/侯凯-每日要做的事.xlsx
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="101">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -435,6 +435,18 @@
   </si>
   <si>
     <t>吴老师没来</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>云谷需求最后确定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>只确认了数据库物理模型</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -871,10 +883,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E85"/>
+  <dimension ref="A1:E87"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A68" workbookViewId="0">
-      <selection activeCell="D85" sqref="D85"/>
+      <selection activeCell="D87" sqref="D87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -1584,6 +1596,23 @@
       </c>
       <c r="C85" s="7" t="s">
         <v>97</v>
+      </c>
+      <c r="D85" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="E85" s="6" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A87" s="4">
+        <v>43054</v>
+      </c>
+      <c r="B87" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="C87" s="7" t="s">
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/交流管理/项目日报/侯凯-每日要做的事.xlsx
+++ b/交流管理/项目日报/侯凯-每日要做的事.xlsx
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="103">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -455,6 +455,14 @@
   </si>
   <si>
     <t>高</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>云谷系统开发跟踪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -883,10 +891,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E87"/>
+  <dimension ref="A1:E89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A68" workbookViewId="0">
-      <selection activeCell="D87" sqref="D87"/>
+    <sheetView tabSelected="1" topLeftCell="A77" workbookViewId="0">
+      <selection activeCell="D90" sqref="D90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -1613,6 +1621,20 @@
       </c>
       <c r="C87" s="7" t="s">
         <v>100</v>
+      </c>
+      <c r="D87" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A89" s="4">
+        <v>43055</v>
+      </c>
+      <c r="B89" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="C89" s="7" t="s">
+        <v>102</v>
       </c>
     </row>
   </sheetData>

--- a/交流管理/项目日报/侯凯-每日要做的事.xlsx
+++ b/交流管理/项目日报/侯凯-每日要做的事.xlsx
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="105">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -463,6 +463,14 @@
   </si>
   <si>
     <t>中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>云谷系统代码查看</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -891,10 +899,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E89"/>
+  <dimension ref="A1:E91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A77" workbookViewId="0">
-      <selection activeCell="D90" sqref="D90"/>
+    <sheetView tabSelected="1" topLeftCell="A83" workbookViewId="0">
+      <selection activeCell="D91" sqref="D91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -1635,6 +1643,20 @@
       </c>
       <c r="C89" s="7" t="s">
         <v>102</v>
+      </c>
+      <c r="D89" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A91" s="4">
+        <v>43059</v>
+      </c>
+      <c r="B91" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="C91" s="7" t="s">
+        <v>104</v>
       </c>
     </row>
   </sheetData>
